--- a/PhaseResults/m4_PhaseThree_final.xlsx
+++ b/PhaseResults/m4_PhaseThree_final.xlsx
@@ -465,425 +465,425 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>-0.7910919035567063</v>
+        <v>-20.60755986554534</v>
       </c>
       <c r="C2">
-        <v>50.41206673697857</v>
+        <v>1.089226581658092</v>
       </c>
       <c r="D2">
-        <v>-94.26830818621607</v>
+        <v>75.00302793421463</v>
       </c>
       <c r="E2">
-        <v>6.401594338606838</v>
+        <v>-0.406779944259445</v>
       </c>
       <c r="F2">
-        <v>0.7933170358247228</v>
+        <v>-0.352054911594391</v>
       </c>
       <c r="G2">
-        <v>-1.486439936742265</v>
+        <v>0.7815408847023604</v>
       </c>
       <c r="H2">
-        <v>0.1079615911618466</v>
+        <v>-0.4500861918092851</v>
       </c>
       <c r="I2">
-        <v>0.5572170276550641</v>
+        <v>0.8988809271980212</v>
       </c>
       <c r="J2">
-        <v>4.35527313958724</v>
+        <v>4.3552525155391</v>
       </c>
       <c r="K2">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="L2">
-        <v>108.7444543868428</v>
+        <v>-13.08276063154555</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.355273139587325</v>
+        <v>4.35525251498856</v>
       </c>
       <c r="O2">
-        <v>5.021939806253992</v>
+        <v>5.021919181655227</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>-2.588492742287783</v>
+        <v>6.489415692342842e-06</v>
       </c>
       <c r="C3">
-        <v>59.4955417929889</v>
+        <v>0.7035650081437954</v>
       </c>
       <c r="D3">
-        <v>-0.1206105271962045</v>
+        <v>1.195271404766907</v>
       </c>
       <c r="E3">
-        <v>0.8991852839758899</v>
+        <v>62.69770586818203</v>
       </c>
       <c r="F3">
-        <v>0.469548705034859</v>
+        <v>1.653471968311442</v>
       </c>
       <c r="G3">
-        <v>-0.8691388670716602</v>
+        <v>-1.727242461161577</v>
       </c>
       <c r="H3">
-        <v>1.088230191009552</v>
+        <v>0.5345901828952315</v>
       </c>
       <c r="I3">
-        <v>0.8422309730537911</v>
+        <v>-0.6299647063015685</v>
       </c>
       <c r="J3">
-        <v>4.355294202799492</v>
+        <v>4.355350724842692</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="L3">
-        <v>2.614780721703519</v>
+        <v>-10.91721351340661</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.355294202798172</v>
+        <v>4.355350721035633</v>
       </c>
       <c r="O3">
-        <v>5.021960869464839</v>
+        <v>5.0220173877023</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>-1.836450284879223</v>
+      </c>
+      <c r="C4">
+        <v>62.8767700094226</v>
+      </c>
+      <c r="D4">
+        <v>0.1799469150252427</v>
+      </c>
+      <c r="E4">
+        <v>-0.0001415292567473507</v>
+      </c>
+      <c r="F4">
+        <v>-0.6433970046019519</v>
+      </c>
+      <c r="G4">
+        <v>-0.7616181374878477</v>
+      </c>
+      <c r="H4">
+        <v>0.8604019339048006</v>
+      </c>
+      <c r="I4">
+        <v>1.848922505396178</v>
+      </c>
+      <c r="J4">
+        <v>4.355362752407631</v>
+      </c>
+      <c r="K4">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>9.425927177164892</v>
-      </c>
-      <c r="C4">
-        <v>-45.60704779270113</v>
-      </c>
-      <c r="D4">
-        <v>84.2291156520397</v>
-      </c>
-      <c r="E4">
-        <v>0.1214625541539565</v>
-      </c>
-      <c r="F4">
-        <v>0.150877507450629</v>
-      </c>
-      <c r="G4">
-        <v>-0.105701273238999</v>
-      </c>
-      <c r="H4">
-        <v>-0.4725403536080177</v>
-      </c>
-      <c r="I4">
-        <v>0.8087446480601739</v>
-      </c>
-      <c r="J4">
-        <v>4.355354434053086</v>
-      </c>
-      <c r="K4">
-        <v>99</v>
-      </c>
       <c r="L4">
-        <v>1.112879480791088</v>
+        <v>-3.972176334657421</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.355354434053088</v>
+        <v>4.35536275239051</v>
       </c>
       <c r="O4">
-        <v>5.022021100719755</v>
+        <v>5.022029419057177</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>22.42637501791641</v>
+        <v>0.3725194491593553</v>
       </c>
       <c r="C5">
-        <v>-0.8448602280351153</v>
+        <v>8.517556335889296</v>
       </c>
       <c r="D5">
-        <v>1.015474669054758</v>
+        <v>58.72967226374491</v>
       </c>
       <c r="E5">
-        <v>56.03970426068496</v>
+        <v>-0.0290272403757472</v>
       </c>
       <c r="F5">
-        <v>-0.4812570140536239</v>
+        <v>0.7927274845000563</v>
       </c>
       <c r="G5">
-        <v>1.067095122165743</v>
+        <v>-1.324838884042288</v>
       </c>
       <c r="H5">
-        <v>1.043915563622367</v>
+        <v>-0.7077263909663822</v>
       </c>
       <c r="I5">
-        <v>-1.080361874907176</v>
+        <v>1.073934080018848</v>
       </c>
       <c r="J5">
-        <v>4.355381844038249</v>
+        <v>4.355367582331654</v>
       </c>
       <c r="K5">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="L5">
-        <v>-5.503620951881429</v>
+        <v>-5.976831165322857</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.355381844056252</v>
+        <v>4.355367582335208</v>
       </c>
       <c r="O5">
-        <v>5.022048510722919</v>
+        <v>5.022034249001875</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>23.71388405557948</v>
+        <v>-0.3630679222453754</v>
       </c>
       <c r="C6">
-        <v>45.61443794615744</v>
+        <v>1.444344719566855</v>
       </c>
       <c r="D6">
-        <v>-34.12200972406686</v>
+        <v>47.84348870804013</v>
       </c>
       <c r="E6">
-        <v>44.17163785833594</v>
+        <v>20.08156574257011</v>
       </c>
       <c r="F6">
-        <v>0.288537142158857</v>
+        <v>0.8703964381228366</v>
       </c>
       <c r="G6">
-        <v>-0.1888115580793215</v>
+        <v>0.7040910487935337</v>
       </c>
       <c r="H6">
-        <v>0.1956073232816409</v>
+        <v>-0.3947333488908169</v>
       </c>
       <c r="I6">
-        <v>-1.01714007460956</v>
+        <v>-0.8932278747492548</v>
       </c>
       <c r="J6">
-        <v>4.354231060773191</v>
+        <v>4.354054096912488</v>
       </c>
       <c r="K6">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L6">
-        <v>-18.49301368400148</v>
+        <v>-18.49099562563747</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.355450999467294</v>
+        <v>4.355476733141792</v>
       </c>
       <c r="O6">
-        <v>5.022117666133961</v>
+        <v>5.022143399808459</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>2.518899114065169</v>
+        <v>91.69643404025862</v>
       </c>
       <c r="C7">
-        <v>-13.45711472089888</v>
+        <v>-0.5686553812968771</v>
       </c>
       <c r="D7">
-        <v>0.3680224287676104</v>
+        <v>1.817496675291703</v>
       </c>
       <c r="E7">
-        <v>78.3875378456373</v>
+        <v>558.5564966879476</v>
       </c>
       <c r="F7">
-        <v>-0.436847421856231</v>
+        <v>-1.469611940034627</v>
       </c>
       <c r="G7">
-        <v>-1.13793301171248</v>
+        <v>0.9017877235241905</v>
       </c>
       <c r="H7">
-        <v>0.7080605255259758</v>
+        <v>0.7566475795356018</v>
       </c>
       <c r="I7">
-        <v>-0.8565701997013442</v>
+        <v>-0.01278018778117751</v>
       </c>
       <c r="J7">
-        <v>4.355488414150794</v>
+        <v>4.354218165535372</v>
       </c>
       <c r="K7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L7">
-        <v>-4.822189952383</v>
+        <v>-543.2311218206245</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4.355488414158804</v>
+        <v>4.355514536895612</v>
       </c>
       <c r="O7">
-        <v>5.02215508082547</v>
+        <v>5.022181203562279</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>0.0003646905057201321</v>
+        <v>-2.22303467957997</v>
       </c>
       <c r="C8">
-        <v>12.13726380355616</v>
+        <v>0.002041387304143306</v>
       </c>
       <c r="D8">
-        <v>71.52518204529395</v>
+        <v>2.123366612837303</v>
       </c>
       <c r="E8">
-        <v>0.7544013866571768</v>
+        <v>72.80241291235619</v>
       </c>
       <c r="F8">
-        <v>1.551915263502593</v>
+        <v>-0.8754408538818552</v>
       </c>
       <c r="G8">
-        <v>-1.834066965209625</v>
+        <v>1.360473970173114</v>
       </c>
       <c r="H8">
-        <v>-0.7998023453059964</v>
+        <v>0.4111161267366548</v>
       </c>
       <c r="I8">
-        <v>0.5735781279972674</v>
+        <v>-0.7137636663214746</v>
       </c>
       <c r="J8">
-        <v>4.355593486877636</v>
+        <v>4.355515010836472</v>
       </c>
       <c r="K8">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>-6.307453734196715</v>
+        <v>-11.30975084725141</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.355593486888992</v>
+        <v>4.35551500608134</v>
       </c>
       <c r="O8">
-        <v>5.022260153555659</v>
+        <v>5.022181672748007</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>-1.239713445673617</v>
+        <v>-14.04075639617688</v>
       </c>
       <c r="C9">
-        <v>0.4577929329906965</v>
+        <v>-4.785324361805287e-05</v>
       </c>
       <c r="D9">
-        <v>80.41892992506186</v>
+        <v>8.052089433750204</v>
       </c>
       <c r="E9">
-        <v>0.0003044518448996039</v>
+        <v>58.41453540999616</v>
       </c>
       <c r="F9">
-        <v>-1.132228958921107</v>
+        <v>0.3890331918063996</v>
       </c>
       <c r="G9">
-        <v>0.6532790132016868</v>
+        <v>1.980658151673694</v>
       </c>
       <c r="H9">
-        <v>-0.8833782319850589</v>
+        <v>0.4982875334585</v>
       </c>
       <c r="I9">
-        <v>1.51819162970643</v>
+        <v>-0.993170253252289</v>
       </c>
       <c r="J9">
-        <v>4.355618623899503</v>
+        <v>4.355557487915684</v>
       </c>
       <c r="K9">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="L9">
-        <v>-4.430671706156152</v>
+        <v>10.75839013608952</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.355618623899516</v>
+        <v>4.355557487876269</v>
       </c>
       <c r="O9">
-        <v>5.022285290566183</v>
+        <v>5.022224154542936</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-41.66934370866625</v>
+        <v>118.8566310237852</v>
       </c>
       <c r="C10">
-        <v>1.244017351511665</v>
+        <v>384.9131034325741</v>
       </c>
       <c r="D10">
-        <v>82.47269541168978</v>
+        <v>17.40569882423881</v>
       </c>
       <c r="E10">
-        <v>0.003790456977247725</v>
+        <v>-402.9847387035821</v>
       </c>
       <c r="F10">
-        <v>-0.007902388422367679</v>
+        <v>-0.5307320830933719</v>
       </c>
       <c r="G10">
-        <v>0.441294717501918</v>
+        <v>-1.417852201440257</v>
       </c>
       <c r="H10">
-        <v>-0.8516556021995789</v>
+        <v>0.2162672493667328</v>
       </c>
       <c r="I10">
-        <v>1.325677203267953</v>
+        <v>-1.306742012696025</v>
       </c>
       <c r="J10">
-        <v>4.355742275103555</v>
+        <v>4.353988233153366</v>
       </c>
       <c r="K10">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L10">
-        <v>33.89143469466655</v>
+        <v>-50.44277963598873</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.355742275103569</v>
+        <v>4.355620433024086</v>
       </c>
       <c r="O10">
-        <v>5.022408941770236</v>
+        <v>5.022287099690753</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -891,46 +891,46 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>-214.089458979903</v>
+        <v>-2.402943353734941</v>
       </c>
       <c r="C11">
-        <v>3.740248289542421</v>
+        <v>44.53439659643279</v>
       </c>
       <c r="D11">
-        <v>-18.1292882683958</v>
+        <v>-0.01328063671396947</v>
       </c>
       <c r="E11">
-        <v>324.5981489585004</v>
+        <v>2.399261227876057</v>
       </c>
       <c r="F11">
-        <v>-1.716722520419483</v>
+        <v>0.7065799905432026</v>
       </c>
       <c r="G11">
-        <v>0.4887892787041928</v>
+        <v>-0.4627780455198596</v>
       </c>
       <c r="H11">
-        <v>0.2262681752824842</v>
+        <v>1.301177413002297</v>
       </c>
       <c r="I11">
-        <v>-1.562079222581749</v>
+        <v>0.7558072736687058</v>
       </c>
       <c r="J11">
-        <v>4.355773393468514</v>
+        <v>4.355632373509996</v>
       </c>
       <c r="K11">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="L11">
-        <v>22.26024981878205</v>
+        <v>-9.078821358084308</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.355773382376089</v>
+        <v>4.355632374199807</v>
       </c>
       <c r="O11">
-        <v>5.022440049042756</v>
+        <v>5.022299040866474</v>
       </c>
     </row>
   </sheetData>

--- a/PhaseResults/m4_PhaseThree_final.xlsx
+++ b/PhaseResults/m4_PhaseThree_final.xlsx
@@ -465,472 +465,472 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>-20.60755986554534</v>
+        <v>0.512427745349363</v>
       </c>
       <c r="C2">
-        <v>1.089226581658092</v>
+        <v>-1.363767227788882</v>
       </c>
       <c r="D2">
-        <v>75.00302793421463</v>
+        <v>59.70675209903689</v>
       </c>
       <c r="E2">
-        <v>-0.406779944259445</v>
+        <v>-0.0003999063564507079</v>
       </c>
       <c r="F2">
-        <v>-0.352054911594391</v>
+        <v>0.6898044308789899</v>
       </c>
       <c r="G2">
-        <v>0.7815408847023604</v>
+        <v>-0.5004414916667799</v>
       </c>
       <c r="H2">
-        <v>-0.4500861918092851</v>
+        <v>-0.6350004731026235</v>
       </c>
       <c r="I2">
-        <v>0.8988809271980212</v>
+        <v>1.621664813878342</v>
       </c>
       <c r="J2">
-        <v>4.3552525155391</v>
+        <v>4.355285082868471</v>
       </c>
       <c r="K2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L2">
-        <v>-13.08276063154555</v>
+        <v>-8.080333650738645</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.35525251498856</v>
+        <v>4.355285082866482</v>
       </c>
       <c r="O2">
-        <v>5.021919181655227</v>
+        <v>5.021951749533149</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>6.489415692342842e-06</v>
+        <v>6.780578827585828</v>
       </c>
       <c r="C3">
-        <v>0.7035650081437954</v>
+        <v>53.10279935400346</v>
       </c>
       <c r="D3">
-        <v>1.195271404766907</v>
+        <v>-89.19799699470447</v>
       </c>
       <c r="E3">
-        <v>62.69770586818203</v>
+        <v>-5.418064916170746e-05</v>
       </c>
       <c r="F3">
-        <v>1.653471968311442</v>
+        <v>0.37163061194269</v>
       </c>
       <c r="G3">
-        <v>-1.727242461161577</v>
+        <v>-0.3368040805509991</v>
       </c>
       <c r="H3">
-        <v>0.5345901828952315</v>
+        <v>0.0386712405137799</v>
       </c>
       <c r="I3">
-        <v>-0.6299647063015685</v>
+        <v>1.890841099281444</v>
       </c>
       <c r="J3">
-        <v>4.355350724842692</v>
+        <v>4.355295902663592</v>
       </c>
       <c r="K3">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="L3">
-        <v>-10.91721351340661</v>
+        <v>64.70060460020855</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.355350721035633</v>
+        <v>4.355295902660338</v>
       </c>
       <c r="O3">
-        <v>5.0220173877023</v>
+        <v>5.021962569327004</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>-1.836450284879223</v>
+        <v>-0.01513397410389549</v>
       </c>
       <c r="C4">
-        <v>62.8767700094226</v>
+        <v>25.15261976488516</v>
       </c>
       <c r="D4">
-        <v>0.1799469150252427</v>
+        <v>44.35061839695146</v>
       </c>
       <c r="E4">
-        <v>-0.0001415292567473507</v>
+        <v>0.2877657036915104</v>
       </c>
       <c r="F4">
-        <v>-0.6433970046019519</v>
+        <v>1.18443800501441</v>
       </c>
       <c r="G4">
-        <v>-0.7616181374878477</v>
+        <v>-0.5605967116354871</v>
       </c>
       <c r="H4">
-        <v>0.8604019339048006</v>
+        <v>-0.9456454821981288</v>
       </c>
       <c r="I4">
-        <v>1.848922505396178</v>
+        <v>0.8338599972250136</v>
       </c>
       <c r="J4">
-        <v>4.355362752407631</v>
+        <v>4.355369250924604</v>
       </c>
       <c r="K4">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="L4">
-        <v>-3.972176334657421</v>
+        <v>-5.761773861116499</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.35536275239051</v>
+        <v>4.355369250931052</v>
       </c>
       <c r="O4">
-        <v>5.022029419057177</v>
+        <v>5.022035917597719</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>0.3725194491593553</v>
+        <v>5.379649467481933</v>
       </c>
       <c r="C5">
-        <v>8.517556335889296</v>
+        <v>-2.599789483648555</v>
       </c>
       <c r="D5">
-        <v>58.72967226374491</v>
+        <v>20.55006959486832</v>
       </c>
       <c r="E5">
-        <v>-0.0290272403757472</v>
+        <v>50.21933496961683</v>
       </c>
       <c r="F5">
-        <v>0.7927274845000563</v>
+        <v>0.5961330041681703</v>
       </c>
       <c r="G5">
-        <v>-1.324838884042288</v>
+        <v>0.6765836970136485</v>
       </c>
       <c r="H5">
-        <v>-0.7077263909663822</v>
+        <v>-0.3212336317668543</v>
       </c>
       <c r="I5">
-        <v>1.073934080018848</v>
+        <v>-0.3538195067581045</v>
       </c>
       <c r="J5">
-        <v>4.355367582331654</v>
+        <v>4.354102017697073</v>
       </c>
       <c r="K5">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="L5">
-        <v>-5.976831165322857</v>
+        <v>-33.0665014051261</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.355367582335208</v>
+        <v>4.355385754896673</v>
       </c>
       <c r="O5">
-        <v>5.022034249001875</v>
+        <v>5.02205242156334</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.3630679222453754</v>
+        <v>-18.14343379251174</v>
       </c>
       <c r="C6">
-        <v>1.444344719566855</v>
+        <v>49.29212575291513</v>
       </c>
       <c r="D6">
-        <v>47.84348870804013</v>
+        <v>1.855967475239631</v>
       </c>
       <c r="E6">
-        <v>20.08156574257011</v>
+        <v>31.11628356901486</v>
       </c>
       <c r="F6">
-        <v>0.8703964381228366</v>
+        <v>-0.6542334917483561</v>
       </c>
       <c r="G6">
-        <v>0.7040910487935337</v>
+        <v>-0.6422895521552101</v>
       </c>
       <c r="H6">
-        <v>-0.3947333488908169</v>
+        <v>0.489667206518646</v>
       </c>
       <c r="I6">
-        <v>-0.8932278747492548</v>
+        <v>-0.3677553154227562</v>
       </c>
       <c r="J6">
-        <v>4.354054096912488</v>
+        <v>4.354322482717333</v>
       </c>
       <c r="K6">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L6">
-        <v>-18.49099562563747</v>
+        <v>-18.49407682031511</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.355476733141792</v>
+        <v>4.355388030443549</v>
       </c>
       <c r="O6">
-        <v>5.022143399808459</v>
+        <v>5.022054697110216</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>91.69643404025862</v>
+        <v>-144.0501276637553</v>
       </c>
       <c r="C7">
-        <v>-0.5686553812968771</v>
+        <v>144.1985215536318</v>
       </c>
       <c r="D7">
-        <v>1.817496675291703</v>
+        <v>0.02834899075494345</v>
       </c>
       <c r="E7">
-        <v>558.5564966879476</v>
+        <v>-184.1771139912038</v>
       </c>
       <c r="F7">
-        <v>-1.469611940034627</v>
+        <v>0.006392393086723125</v>
       </c>
       <c r="G7">
-        <v>0.9017877235241905</v>
+        <v>-0.3762215925428569</v>
       </c>
       <c r="H7">
-        <v>0.7566475795356018</v>
+        <v>1.032905282683497</v>
       </c>
       <c r="I7">
-        <v>-0.01278018778117751</v>
+        <v>-0.1155008040902508</v>
       </c>
       <c r="J7">
-        <v>4.354218165535372</v>
+        <v>4.355421483559979</v>
       </c>
       <c r="K7">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="L7">
-        <v>-543.2311218206245</v>
+        <v>234.3095798628854</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4.355514536895612</v>
+        <v>4.355421483560008</v>
       </c>
       <c r="O7">
-        <v>5.022181203562279</v>
+        <v>5.022088150226675</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>-2.22303467957997</v>
+        <v>2.242833893024097</v>
       </c>
       <c r="C8">
-        <v>0.002041387304143306</v>
+        <v>4.590921744530472</v>
       </c>
       <c r="D8">
-        <v>2.123366612837303</v>
+        <v>69.50350709815329</v>
       </c>
       <c r="E8">
-        <v>72.80241291235619</v>
+        <v>-0.0002337489343013588</v>
       </c>
       <c r="F8">
-        <v>-0.8754408538818552</v>
+        <v>-0.005662553358535494</v>
       </c>
       <c r="G8">
-        <v>1.360473970173114</v>
+        <v>0.3728013791281621</v>
       </c>
       <c r="H8">
-        <v>0.4111161267366548</v>
+        <v>-0.4526863167629085</v>
       </c>
       <c r="I8">
-        <v>-0.7137636663214746</v>
+        <v>1.483440877429489</v>
       </c>
       <c r="J8">
-        <v>4.355515010836472</v>
+        <v>4.353957525117924</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="L8">
-        <v>-11.30975084725141</v>
+        <v>-29.58683169051387</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.35551500608134</v>
+        <v>4.355424018045394</v>
       </c>
       <c r="O8">
-        <v>5.022181672748007</v>
+        <v>5.022090684712061</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>-14.04075639617688</v>
+        <v>182.6048700990076</v>
       </c>
       <c r="C9">
-        <v>-4.785324361805287e-05</v>
+        <v>-214.5918842984699</v>
       </c>
       <c r="D9">
-        <v>8.052089433750204</v>
+        <v>0.05227083228840537</v>
       </c>
       <c r="E9">
-        <v>58.41453540999616</v>
+        <v>48.06839951286155</v>
       </c>
       <c r="F9">
-        <v>0.3890331918063996</v>
+        <v>-0.382876534643398</v>
       </c>
       <c r="G9">
-        <v>1.980658151673694</v>
+        <v>-0.2128477500075963</v>
       </c>
       <c r="H9">
-        <v>0.4982875334585</v>
+        <v>0.9543968675431658</v>
       </c>
       <c r="I9">
-        <v>-0.993170253252289</v>
+        <v>-0.2398966450387012</v>
       </c>
       <c r="J9">
-        <v>4.355557487915684</v>
+        <v>4.355433165429133</v>
       </c>
       <c r="K9">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="L9">
-        <v>10.75839013608952</v>
+        <v>35.59730982517511</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.355557487876269</v>
+        <v>4.355433165429506</v>
       </c>
       <c r="O9">
-        <v>5.022224154542936</v>
+        <v>5.022099832096173</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>118.8566310237852</v>
+        <v>-48.60009858307789</v>
       </c>
       <c r="C10">
-        <v>384.9131034325741</v>
+        <v>100.7528450272593</v>
       </c>
       <c r="D10">
-        <v>17.40569882423881</v>
+        <v>3.078983553176508</v>
       </c>
       <c r="E10">
-        <v>-402.9847387035821</v>
+        <v>-0.0001434597757417982</v>
       </c>
       <c r="F10">
-        <v>-0.5307320830933719</v>
+        <v>0.09617584565183712</v>
       </c>
       <c r="G10">
-        <v>-1.417852201440257</v>
+        <v>-1.297390320175113</v>
       </c>
       <c r="H10">
-        <v>0.2162672493667328</v>
+        <v>0.4772201815601758</v>
       </c>
       <c r="I10">
-        <v>-1.306742012696025</v>
+        <v>1.522118501330372</v>
       </c>
       <c r="J10">
-        <v>4.353988233153366</v>
+        <v>4.355579008451969</v>
       </c>
       <c r="K10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L10">
-        <v>-50.44277963598873</v>
+        <v>54.41205601879853</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.355620433024086</v>
+        <v>4.355579008452018</v>
       </c>
       <c r="O10">
-        <v>5.022287099690753</v>
+        <v>5.022245675118685</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>-2.402943353734941</v>
+        <v>8.153141052053776</v>
       </c>
       <c r="C11">
-        <v>44.53439659643279</v>
+        <v>75.97522598138652</v>
       </c>
       <c r="D11">
-        <v>-0.01328063671396947</v>
+        <v>0.001186883175047206</v>
       </c>
       <c r="E11">
-        <v>2.399261227876057</v>
+        <v>0.4235767403985576</v>
       </c>
       <c r="F11">
-        <v>0.7065799905432026</v>
+        <v>-0.6925446724403637</v>
       </c>
       <c r="G11">
-        <v>-0.4627780455198596</v>
+        <v>-0.9513589618600715</v>
       </c>
       <c r="H11">
-        <v>1.301177413002297</v>
+        <v>1.361170704013164</v>
       </c>
       <c r="I11">
-        <v>0.7558072736687058</v>
+        <v>0.6545411439990407</v>
       </c>
       <c r="J11">
-        <v>4.355632373509996</v>
+        <v>4.35567484706745</v>
       </c>
       <c r="K11">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L11">
-        <v>-9.078821358084308</v>
+        <v>-4.001917544265474</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.355632374199807</v>
+        <v>4.355674847067466</v>
       </c>
       <c r="O11">
-        <v>5.022299040866474</v>
+        <v>5.022341513734133</v>
       </c>
     </row>
   </sheetData>
